--- a/practicefiles/Scores3.xlsx
+++ b/practicefiles/Scores3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\office\leerexcel\practicefiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158CE228-9BB7-4EAB-A7E3-58E99DDC2B7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206EE5A7-F4E7-4E1B-BB93-23365616FC79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35040" yWindow="1425" windowWidth="21600" windowHeight="12045" xr2:uid="{43F79229-BD2E-4403-BECD-C87DA2617EA1}"/>
+    <workbookView xWindow="30225" yWindow="1290" windowWidth="21600" windowHeight="12045" xr2:uid="{43F79229-BD2E-4403-BECD-C87DA2617EA1}"/>
   </bookViews>
   <sheets>
     <sheet name="scores3" sheetId="3" r:id="rId1"/>
@@ -444,7 +444,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,57 +479,57 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="C4" t="s">
         <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -591,29 +591,29 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
         <v>2</v>
       </c>
     </row>
